--- a/Xports/UD_French-ParisStories/Verb-then-punct.xlsx
+++ b/Xports/UD_French-ParisStories/Verb-then-punct.xlsx
@@ -5082,7 +5082,7 @@
         <v>389</v>
       </c>
       <c r="E62" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F62" t="s">
         <v>271</v>
@@ -5109,7 +5109,7 @@
         <v>534</v>
       </c>
       <c r="N62" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="O62">
         <v>-1</v>
